--- a/property/S72.xlsx
+++ b/property/S72.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\business\property\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B855E0-4DF6-41B4-9CBB-917CCF4B39F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331C267D-8492-4282-89A3-4A7DA3D5F549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-285" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7D85F463-FDA3-4EC2-B3ED-40B94F1D36DF}"/>
   </bookViews>
@@ -902,7 +902,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/property/S72.xlsx
+++ b/property/S72.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\business\property\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\Personal\business\property\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331C267D-8492-4282-89A3-4A7DA3D5F549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A83E4E-0205-468F-A8EA-B45B63F58751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-285" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7D85F463-FDA3-4EC2-B3ED-40B94F1D36DF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{7D85F463-FDA3-4EC2-B3ED-40B94F1D36DF}"/>
   </bookViews>
   <sheets>
     <sheet name="S72 8LN" sheetId="1" r:id="rId1"/>
